--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-418075.5004077804</v>
+        <v>-419963.0819241821</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13746788.93856738</v>
+        <v>13746788.93856739</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>168.3777498901349</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>112.9574437687717</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>73.05383668378903</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>382.5071934628804</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>144.5143119132931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>144.577399146572</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>4.164013692469712</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>272.4842522972791</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,25 +1181,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>81.43080291134243</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>90.02575748609821</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>6.390346842435374</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527401</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>118.4898845065129</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>177.4671311412336</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113169</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>207.0920728594997</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>221.9323490168575</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>160.7172781444514</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>77.91313604580236</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>172.7067178467372</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>82.17515457706216</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>145.6925184226051</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174148</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>127.6176159584067</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>55.51369213499306</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>93.41221638965524</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>90.21779139437413</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>7.502255247368049</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>144.0725266431585</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3016,7 +3016,7 @@
         <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415344</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3554,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3673,7 +3673,7 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789547</v>
@@ -3910,7 +3910,7 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789546</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1376.372217881286</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C2" t="n">
-        <v>1376.372217881286</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2472.041866306155</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2253.407199278218</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="V2" t="n">
-        <v>2267.209817970484</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="W2" t="n">
-        <v>2153.11138992122</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="X2" t="n">
-        <v>2153.11138992122</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="Y2" t="n">
-        <v>1762.972057945408</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="3">
@@ -4419,19 +4419,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>654.3372299803849</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V4" t="n">
-        <v>654.3372299803849</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W4" t="n">
-        <v>654.3372299803849</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X4" t="n">
-        <v>426.3476790823676</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="Y4" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1791.109440255352</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,7 +4580,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
         <v>2544.691559791253</v>
@@ -4601,16 +4601,16 @@
         <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018223</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y5" t="n">
-        <v>2177.709280319473</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,22 +4644,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>368.9169416640007</v>
+        <v>495.9333588715791</v>
       </c>
       <c r="C7" t="n">
-        <v>199.9807587360937</v>
+        <v>495.9333588715791</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>495.9333588715791</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>348.020265289186</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>348.020265289186</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>348.020265289186</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036446</v>
@@ -4732,7 +4732,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942404</v>
+        <v>723.9229097695965</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942404</v>
+        <v>495.9333588715791</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942404</v>
+        <v>495.9333588715791</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.14692331494</v>
+        <v>1550.991915879943</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>1182.029398939532</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>823.7637003327811</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>823.7637003327811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2165.054910560866</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1812.286255290752</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>1812.286255290752</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y8" t="n">
-        <v>1422.14692331494</v>
+        <v>1937.591755944065</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.0202652891861</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C10" t="n">
-        <v>348.0202652891861</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>348.0202652891861</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>348.0202652891861</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0202652891861</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>637.1938756346181</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>637.1938756346181</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="U10" t="n">
-        <v>348.0202652891861</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="V10" t="n">
-        <v>348.0202652891861</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="W10" t="n">
-        <v>348.0202652891861</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="X10" t="n">
-        <v>348.0202652891861</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.0202652891861</v>
+        <v>573.5274298401787</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,22 +5024,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822455</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5121,22 +5121,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.2699138005286</v>
+        <v>216.9038434870665</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>216.9038434870665</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870665</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028584</v>
@@ -5200,49 +5200,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799332</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947116</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974664</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473451</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473451</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473451</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1044.311772267564</v>
+        <v>955.103143565574</v>
       </c>
       <c r="W13" t="n">
-        <v>865.052043842076</v>
+        <v>665.6859735286134</v>
       </c>
       <c r="X13" t="n">
-        <v>637.0624929440587</v>
+        <v>437.6964226305967</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.2699138005286</v>
+        <v>216.9038434870666</v>
       </c>
     </row>
     <row r="14">
@@ -5267,22 +5267,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5361,22 +5361,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2205.048458376741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2410.070939158951</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1089.812348494162</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>800.6837097077201</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V16" t="n">
-        <v>545.9992215018333</v>
+        <v>796.2722772255037</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,10 +5592,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L18" t="n">
         <v>891.4406401619856</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.4843764226425</v>
+        <v>675.7175987609741</v>
       </c>
       <c r="C19" t="n">
-        <v>395.5481934947356</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D19" t="n">
-        <v>395.5481934947356</v>
+        <v>356.6647764207314</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1336.575585563508</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V19" t="n">
-        <v>1081.891097357621</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W19" t="n">
-        <v>792.4739273206599</v>
+        <v>1085.355614489231</v>
       </c>
       <c r="X19" t="n">
-        <v>564.4843764226425</v>
+        <v>857.3660635912138</v>
       </c>
       <c r="Y19" t="n">
-        <v>564.4843764226425</v>
+        <v>857.3660635912138</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,34 +5762,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M21" t="n">
-        <v>1689.561836756087</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N21" t="n">
-        <v>2019.424464420119</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O21" t="n">
-        <v>2298.964529638817</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5929,31 +5929,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.867621687013</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W22" t="n">
-        <v>720.4504516500527</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>492.4609007520354</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>271.6683216085053</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>506.0324822735075</v>
+        <v>627.6468934660858</v>
       </c>
       <c r="C25" t="n">
-        <v>506.0324822735075</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D25" t="n">
-        <v>355.9158428611718</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E25" t="n">
-        <v>355.9158428611718</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F25" t="n">
-        <v>355.9158428611718</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557903</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352016</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W25" t="n">
-        <v>954.814612315055</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="X25" t="n">
-        <v>726.8250614170377</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.0324822735075</v>
+        <v>809.2953582963255</v>
       </c>
     </row>
     <row r="26">
@@ -6209,58 +6209,58 @@
         <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822453</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823803</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.28419175141</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851615</v>
@@ -6300,16 +6300,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
@@ -6321,7 +6321,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.2699138005285</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C28" t="n">
         <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6403,31 +6403,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1370.009587771633</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1370.009587771633</v>
+        <v>786.0822064765188</v>
       </c>
       <c r="V28" t="n">
-        <v>1115.325099565746</v>
+        <v>531.3977182706319</v>
       </c>
       <c r="W28" t="n">
-        <v>825.9079295287855</v>
+        <v>475.323281770639</v>
       </c>
       <c r="X28" t="n">
-        <v>597.9183786307682</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y28" t="n">
-        <v>597.9183786307682</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
@@ -6546,22 +6546,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>494.8466681110235</v>
+        <v>582.6866369260347</v>
       </c>
       <c r="C31" t="n">
-        <v>494.8466681110235</v>
+        <v>469.5113192794986</v>
       </c>
       <c r="D31" t="n">
-        <v>400.4908939800586</v>
+        <v>375.1555451485336</v>
       </c>
       <c r="E31" t="n">
-        <v>308.3386656790364</v>
+        <v>283.0033168475114</v>
       </c>
       <c r="F31" t="n">
-        <v>217.2095834624968</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="G31" t="n">
-        <v>104.7951270636879</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="H31" t="n">
-        <v>104.7951270636879</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
         <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962054</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6649,22 +6649,22 @@
         <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323875</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818804</v>
+        <v>1478.414563633815</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894288</v>
+        <v>1279.490940709299</v>
       </c>
       <c r="W31" t="n">
-        <v>957.994667138698</v>
+        <v>1045.834635953709</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220516</v>
+        <v>873.6059503370627</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598923</v>
+        <v>708.5742364749035</v>
       </c>
     </row>
     <row r="32">
@@ -6677,34 +6677,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6783,13 +6783,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O33" t="n">
         <v>2331.418122136705</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,13 +6877,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6914,73 +6914,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
@@ -7020,13 +7020,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O36" t="n">
         <v>2331.418122136705</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,37 +7345,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7497,19 +7497,19 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254951</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992663</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>19.14409596997064</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
-        <v>127.6461250100647</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>223.6742649934479</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>32.781406563524</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720754</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10194,10 +10194,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,16 +10431,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,16 +10668,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>176.7176547498451</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11145,22 +11145,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>27.94407814005632</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23464,19 +23464,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>109.0558671953575</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>14.45548819888959</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>64.30500338171986</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>125.520074254126</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>208.6098622907886</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.125262335200077</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>85.07166652156567</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>20.80105004077245</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24418,19 +24418,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24649,19 +24649,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>93.92994509998259</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>231.009306201598</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>47.71373358834678</v>
+        <v>55.21598883571487</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523565</v>
+        <v>54.76109577523567</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>86.96156912686172</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-1.167288500859465e-12</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="C2" t="n">
         <v>246312.5309592849</v>
       </c>
       <c r="D2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
-        <v>234617.4358426252</v>
+        <v>234617.4358426251</v>
       </c>
       <c r="F2" t="n">
-        <v>234617.4358426252</v>
+        <v>234617.4358426251</v>
       </c>
       <c r="G2" t="n">
         <v>234617.4358426251</v>
@@ -26335,7 +26335,7 @@
         <v>234617.4358426251</v>
       </c>
       <c r="J2" t="n">
-        <v>234617.4358426252</v>
+        <v>234617.4358426251</v>
       </c>
       <c r="K2" t="n">
         <v>244093.2824071617</v>
@@ -26344,13 +26344,13 @@
         <v>246312.5309592851</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="N2" t="n">
         <v>246312.5309592851</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="P2" t="n">
         <v>246312.5309592851</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284569</v>
       </c>
       <c r="L3" t="n">
         <v>10342.90680086682</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284568</v>
       </c>
     </row>
     <row r="4">
@@ -26424,25 +26424,25 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687074</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687064</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106727</v>
+        <v>40339.23010106726</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
@@ -26451,13 +26451,13 @@
         <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
+        <v>44593.39482819118</v>
+      </c>
+      <c r="O4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="P4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.39482819119</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26491,7 +26491,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,7 +26500,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-592147.2941051936</v>
       </c>
       <c r="C6" t="n">
-        <v>-2179.414890648899</v>
+        <v>-2179.414890648943</v>
       </c>
       <c r="D6" t="n">
-        <v>-2179.414890648928</v>
+        <v>-2179.414890648884</v>
       </c>
       <c r="E6" t="n">
-        <v>-404704.5341698581</v>
+        <v>-404801.9932958306</v>
       </c>
       <c r="F6" t="n">
-        <v>120455.5023070378</v>
+        <v>120358.0431810656</v>
       </c>
       <c r="G6" t="n">
-        <v>120455.5023070378</v>
+        <v>120358.0431810656</v>
       </c>
       <c r="H6" t="n">
-        <v>120455.5023070377</v>
+        <v>120358.0431810656</v>
       </c>
       <c r="I6" t="n">
-        <v>120455.5023070378</v>
+        <v>120358.0431810656</v>
       </c>
       <c r="J6" t="n">
-        <v>-55967.71688555511</v>
+        <v>-56065.17601152738</v>
       </c>
       <c r="K6" t="n">
-        <v>62963.23847302594</v>
+        <v>62944.7447350916</v>
       </c>
       <c r="L6" t="n">
-        <v>93661.12351020165</v>
+        <v>93661.12351020168</v>
       </c>
       <c r="M6" t="n">
-        <v>-30796.98492276875</v>
+        <v>-30796.98492276868</v>
       </c>
       <c r="N6" t="n">
         <v>104004.0303110685</v>
       </c>
       <c r="O6" t="n">
-        <v>104004.0303110685</v>
+        <v>104004.0303110684</v>
       </c>
       <c r="P6" t="n">
-        <v>59841.42500822278</v>
+        <v>59841.42500822285</v>
       </c>
     </row>
   </sheetData>
@@ -26710,13 +26710,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
@@ -26725,7 +26725,7 @@
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26753,7 +26753,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
         <v>12.92863350108352</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>6.037962918836598</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>236.2835249486413</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>213.2280375581887</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>62.45749068994752</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.2266482006001524</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.7236267427605</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>4.038073871640364</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>282.3589846441213</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>134.3917934444324</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>246.3214555587925</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -28056,16 +28056,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>122.1197814639207</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>218.6447586156489</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.679101716144942e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-2.955857780762017e-12</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31355,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>329.5684730204368</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799256</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35741,13 +35741,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
-        <v>215.6591577951388</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>374.2497035813871</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>239.8748214950488</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415095</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36601,7 +36601,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36689,10 +36689,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,10 +36914,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412267</v>
+        <v>67.71102679412265</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
@@ -36999,7 +36999,7 @@
         <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004319</v>
+        <v>94.42895660043187</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315247</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315247</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>487.1420318003114</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
